--- a/gameData/shared/LocationInitData.xlsx
+++ b/gameData/shared/LocationInitData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>STR_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -81,6 +81,58 @@
   <si>
     <t>INT_location</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>城堡</t>
+  </si>
+  <si>
+    <t>瞭望塔</t>
+  </si>
+  <si>
+    <t>资源仓库</t>
+  </si>
+  <si>
+    <t>龙巢</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>材料库房</t>
+  </si>
+  <si>
+    <t>军用帐篷</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>锻造工坊</t>
+  </si>
+  <si>
+    <t>石匠工坊</t>
+  </si>
+  <si>
+    <t>锯木工房</t>
+  </si>
+  <si>
+    <t>磨坊</t>
+  </si>
+  <si>
+    <t>工具作坊</t>
+  </si>
+  <si>
+    <t>市政厅</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -90,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -156,6 +208,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -215,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -230,6 +296,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -243,7 +313,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -251,6 +321,10 @@
     <cellStyle name="Standard_game" xfId="5"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -700,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -711,140 +785,191 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/LocationInitData.xlsx
+++ b/gameData/shared/LocationInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4880" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
@@ -281,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -300,6 +300,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -313,7 +319,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="20">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -323,8 +329,14 @@
     <cellStyle name="标题 2 1" xfId="7"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -777,7 +789,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -845,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -944,10 +956,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/LocationInitData.xlsx
+++ b/gameData/shared/LocationInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5540" yWindow="21600" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
@@ -281,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -306,6 +306,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -319,7 +323,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="24">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -332,11 +336,15 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -789,7 +797,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
